--- a/data/trans_orig/P36BPD12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>248232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>224885</v>
+        <v>225132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270499</v>
+        <v>270185</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.430878510091379</v>
+        <v>0.4308785100913791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3903528107507618</v>
+        <v>0.3907811254768838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4695285976956026</v>
+        <v>0.4689834982477051</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>705</v>
@@ -762,19 +762,19 @@
         <v>391118</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>369913</v>
+        <v>370060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>414316</v>
+        <v>415826</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4762437563455011</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4504235033126293</v>
+        <v>0.4506022929282664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5044912589192279</v>
+        <v>0.5063291999818726</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1011</v>
@@ -783,19 +783,19 @@
         <v>639350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>604703</v>
+        <v>606085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>672114</v>
+        <v>673300</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4575405111425426</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4327454691895875</v>
+        <v>0.4337349673527719</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4809876949269416</v>
+        <v>0.48183648965383</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>220813</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198182</v>
+        <v>197614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245783</v>
+        <v>241957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3832841764186209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3440020975873602</v>
+        <v>0.3430167803640934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4266276233881132</v>
+        <v>0.4199865101812159</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>544</v>
@@ -833,19 +833,19 @@
         <v>322510</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301394</v>
+        <v>300104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345065</v>
+        <v>343459</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3927030313342161</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3669916820974786</v>
+        <v>0.365421308031257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.420167792378015</v>
+        <v>0.4182114334374747</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>804</v>
@@ -854,19 +854,19 @@
         <v>543322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>509967</v>
+        <v>510455</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573308</v>
+        <v>576772</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3888198130655296</v>
+        <v>0.3888198130655297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3649495596980111</v>
+        <v>0.3652989689810816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4102784320857251</v>
+        <v>0.4127576589772842</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>107062</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>89219</v>
+        <v>89397</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>125002</v>
+        <v>128988</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1858373134900001</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1548661176907265</v>
+        <v>0.1551734712172645</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2169777597698928</v>
+        <v>0.2238964855731805</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>176</v>
@@ -904,19 +904,19 @@
         <v>107628</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93396</v>
+        <v>92054</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>124461</v>
+        <v>123874</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1310532123202829</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1137228572161771</v>
+        <v>0.1120895320179824</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1515500864710889</v>
+        <v>0.1508353223208321</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>298</v>
@@ -925,19 +925,19 @@
         <v>214690</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>195140</v>
+        <v>191228</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240111</v>
+        <v>239182</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1536396757919278</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1396488333526743</v>
+        <v>0.1368490436240273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1718314594209986</v>
+        <v>0.1711667106492017</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>678316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>630640</v>
+        <v>628263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>728314</v>
+        <v>728270</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3046311665625736</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2832202119498106</v>
+        <v>0.2821526648837765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3270853239217275</v>
+        <v>0.3270656473956435</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1007</v>
@@ -1050,19 +1050,19 @@
         <v>764668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>724963</v>
+        <v>721116</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>816882</v>
+        <v>808809</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3526705233460239</v>
+        <v>0.352670523346024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3343584931738652</v>
+        <v>0.3325840646089293</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3767521774758694</v>
+        <v>0.3730289336341083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1612</v>
@@ -1071,19 +1071,19 @@
         <v>1442983</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1379574</v>
+        <v>1379727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1509573</v>
+        <v>1515121</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.328331355440551</v>
+        <v>0.3283313554405511</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3139033127635259</v>
+        <v>0.3139382888080274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3434828467837464</v>
+        <v>0.3447452927369821</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>1046190</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>996176</v>
+        <v>990513</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1110220</v>
+        <v>1097654</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4698433168818614</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4473817558882309</v>
+        <v>0.4448387739222061</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4985992130253767</v>
+        <v>0.4929556005229118</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1360</v>
@@ -1121,19 +1121,19 @@
         <v>974314</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>927021</v>
+        <v>931173</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1017477</v>
+        <v>1022727</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.449360823169635</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4275492012210189</v>
+        <v>0.4294642183649112</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4692682203394982</v>
+        <v>0.4716893950151167</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2334</v>
@@ -1142,19 +1142,19 @@
         <v>2020504</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1954257</v>
+        <v>1951768</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2089435</v>
+        <v>2093309</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4597382904582147</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4446646312275266</v>
+        <v>0.4440983601420925</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4754226495236092</v>
+        <v>0.4763041678716362</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>502173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>449529</v>
+        <v>454685</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>545636</v>
+        <v>551548</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2255255165555652</v>
+        <v>0.2255255165555651</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2018829744093449</v>
+        <v>0.2041988739472917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2450445815433684</v>
+        <v>0.2476997960205427</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>550</v>
@@ -1192,19 +1192,19 @@
         <v>429240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>394513</v>
+        <v>394940</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>467293</v>
+        <v>464596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1979686534843411</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1819523077969979</v>
+        <v>0.1821493048401584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2155190732835017</v>
+        <v>0.2142754024737222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>959</v>
@@ -1213,19 +1213,19 @@
         <v>931413</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>878945</v>
+        <v>871730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>998501</v>
+        <v>989332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2119303541012341</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1999919720297408</v>
+        <v>0.1983504597311843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2271953884641257</v>
+        <v>0.2251090012081358</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>216392</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>188838</v>
+        <v>189665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243724</v>
+        <v>241883</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3043596871275914</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2656049686866279</v>
+        <v>0.2667675728700469</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3428024088805179</v>
+        <v>0.3402129703172484</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>342</v>
@@ -1338,19 +1338,19 @@
         <v>252523</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>229547</v>
+        <v>228330</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>276036</v>
+        <v>276312</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3439720183103704</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3126748375313949</v>
+        <v>0.3110168997760452</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3759999531617183</v>
+        <v>0.3763753155342466</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>547</v>
@@ -1359,19 +1359,19 @@
         <v>468915</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>436690</v>
+        <v>430566</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>505127</v>
+        <v>505670</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3244833364033805</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.302183978778275</v>
+        <v>0.2979459468892394</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3495411738340434</v>
+        <v>0.3499172609964459</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>332723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>304394</v>
+        <v>304228</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>361750</v>
+        <v>362321</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4679817505465693</v>
+        <v>0.4679817505465694</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4281364120613517</v>
+        <v>0.4279024862651074</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5088076484939054</v>
+        <v>0.5096111899210261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>424</v>
@@ -1409,19 +1409,19 @@
         <v>300614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>273601</v>
+        <v>276236</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>326003</v>
+        <v>324750</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4094780529613115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3726830516743478</v>
+        <v>0.376272282614439</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4440619834524093</v>
+        <v>0.4423547236484359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>754</v>
@@ -1430,19 +1430,19 @@
         <v>633337</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>596319</v>
+        <v>595993</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>674380</v>
+        <v>669200</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4382610081315315</v>
+        <v>0.4382610081315313</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4126446101930422</v>
+        <v>0.4124191529249421</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4666623066571192</v>
+        <v>0.4630773636522778</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>161860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139685</v>
+        <v>138799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189457</v>
+        <v>187796</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2276585623258391</v>
+        <v>0.2276585623258392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1964698254549531</v>
+        <v>0.1952233401000743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2664745206281758</v>
+        <v>0.2641384957944906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>237</v>
@@ -1480,19 +1480,19 @@
         <v>181002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160965</v>
+        <v>161697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>202440</v>
+        <v>201727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2465499287283179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2192563948980191</v>
+        <v>0.22025384568998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2757519400458009</v>
+        <v>0.2747806890981027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>382</v>
@@ -1501,19 +1501,19 @@
         <v>342861</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>313223</v>
+        <v>313661</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>377495</v>
+        <v>374178</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2372556554650882</v>
+        <v>0.2372556554650881</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2167463425487549</v>
+        <v>0.2170489897773332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2612218520322765</v>
+        <v>0.2589260644950281</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>1142940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1084049</v>
+        <v>1082787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1209223</v>
+        <v>1207949</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3252754135882217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.308515467716886</v>
+        <v>0.3081562405817813</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3441391956570254</v>
+        <v>0.3437767487558504</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2054</v>
@@ -1626,19 +1626,19 @@
         <v>1408309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1352260</v>
+        <v>1356190</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1460217</v>
+        <v>1464063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.37821004258889</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3631577682868633</v>
+        <v>0.3642131878973446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3921501486433655</v>
+        <v>0.3931829066889388</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3170</v>
@@ -1647,19 +1647,19 @@
         <v>2551249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2471104</v>
+        <v>2465227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2639931</v>
+        <v>2625206</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3525101811642389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3414363496941157</v>
+        <v>0.3406244279808768</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3647634576551866</v>
+        <v>0.3627288834128534</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>1599726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1535585</v>
+        <v>1534530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1675241</v>
+        <v>1660141</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4552746411036325</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4370204485351434</v>
+        <v>0.436720326034678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4767659040592834</v>
+        <v>0.4724683986527821</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2328</v>
@@ -1697,19 +1697,19 @@
         <v>1597438</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1547348</v>
+        <v>1536918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1651799</v>
+        <v>1649868</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4290015647176047</v>
+        <v>0.4290015647176048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4155496651394568</v>
+        <v>0.4127487218888037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4436005953008896</v>
+        <v>0.4430821281475432</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3892</v>
@@ -1718,19 +1718,19 @@
         <v>3197163</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3119011</v>
+        <v>3116982</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3285242</v>
+        <v>3294921</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.441757192462</v>
+        <v>0.4417571924619997</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4309586977105617</v>
+        <v>0.4306784003552209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4539271237083457</v>
+        <v>0.4552645454305552</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>771094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>713265</v>
+        <v>710767</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>827814</v>
+        <v>823642</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2194499453081458</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2029918163975465</v>
+        <v>0.2022810884915446</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2355920641535322</v>
+        <v>0.2344046698853353</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>963</v>
@@ -1768,19 +1768,19 @@
         <v>717870</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>675307</v>
+        <v>676421</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>762236</v>
+        <v>764389</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1927883926935053</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1813579373954014</v>
+        <v>0.1816568479710511</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2047030699072526</v>
+        <v>0.20528131726253</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1639</v>
@@ -1789,19 +1789,19 @@
         <v>1488965</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1419508</v>
+        <v>1422580</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1557302</v>
+        <v>1560577</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2057326263737612</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1961356417576918</v>
+        <v>0.1965601804333436</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2151748868424019</v>
+        <v>0.2156274149982614</v>
       </c>
     </row>
     <row r="19">
